--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\donnesavrilmaijuinjuillet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\Resto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1122,10 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A213" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>36</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>36</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>3</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>3</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>3</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>3</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>3</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>3</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>3</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>3</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>3</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>3</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>3</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -3831,7 +3832,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B246" t="s">
         <v>227</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B247" t="s">
         <v>227</v>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B248" t="s">
         <v>227</v>
@@ -3862,7 +3863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3963,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C231"/>
+  <autoFilter ref="A1:C257">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Eat"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\Resto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$257</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,7 +28,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Drink</t>
+    <t>DRINK</t>
   </si>
   <si>
     <t>BIERES</t>
@@ -74,7 +64,7 @@
     <t>SMIRNOFF</t>
   </si>
   <si>
-    <t>Eat</t>
+    <t>EAT</t>
   </si>
   <si>
     <t>BURGERS AND SANDWICHES</t>
@@ -137,7 +127,7 @@
     <t>VEUVE-CLIQUOT</t>
   </si>
   <si>
-    <t>Smoke</t>
+    <t>SMOKE</t>
   </si>
   <si>
     <t>CHICHA</t>
@@ -587,54 +577,54 @@
     <t>SPECIALITE GIGOT</t>
   </si>
   <si>
+    <t>ACCOMPAGNEMENT</t>
+  </si>
+  <si>
     <t>ACC SUPPL</t>
   </si>
   <si>
-    <t>ACCOMPAGNEMENT</t>
-  </si>
-  <si>
     <t>GLENFIDDICH 18ANS BTL</t>
   </si>
   <si>
     <t>GOLD LABEL BOTTLE</t>
   </si>
   <si>
+    <t>MOET CHANDOM NECTAR ROSEE</t>
+  </si>
+  <si>
+    <t>COCKTAIL MAISON</t>
+  </si>
+  <si>
+    <t>PINA COLADA</t>
+  </si>
+  <si>
+    <t>TABOO STEAK</t>
+  </si>
+  <si>
+    <t>SODABI</t>
+  </si>
+  <si>
+    <t>TONIC</t>
+  </si>
+  <si>
+    <t>RIZ AUX LEGUMES</t>
+  </si>
+  <si>
+    <t>LA FIOLE DU PAPE</t>
+  </si>
+  <si>
+    <t>CIROC</t>
+  </si>
+  <si>
+    <t>CHIVAS</t>
+  </si>
+  <si>
+    <t>DOUBLE BLACK BOTTLE</t>
+  </si>
+  <si>
     <t>JACK DANIEL BTL</t>
   </si>
   <si>
-    <t>CHIVAS</t>
-  </si>
-  <si>
-    <t>CIROC</t>
-  </si>
-  <si>
-    <t>DOUBLE BLACK BOTTLE</t>
-  </si>
-  <si>
-    <t>TONIC</t>
-  </si>
-  <si>
-    <t>LA FIOLE DU PAPE</t>
-  </si>
-  <si>
-    <t>MOET CHANDOM NECTAR ROSEE</t>
-  </si>
-  <si>
-    <t>COCKTAIL MAISON</t>
-  </si>
-  <si>
-    <t>PINA COLADA</t>
-  </si>
-  <si>
-    <t>TABOO STEAK</t>
-  </si>
-  <si>
-    <t>SODABI</t>
-  </si>
-  <si>
-    <t>RIZ AUX LEGUMES</t>
-  </si>
-  <si>
     <t>MOET CHANDOM ICE</t>
   </si>
   <si>
@@ -677,6 +667,9 @@
     <t>SALADE COMPOSEE</t>
   </si>
   <si>
+    <t>SHOTS ET DIGESTIFS</t>
+  </si>
+  <si>
     <t>CALIENDI SHOT</t>
   </si>
   <si>
@@ -708,21 +701,24 @@
   </si>
   <si>
     <t>JACK DANIELS HONEY BTL</t>
-  </si>
-  <si>
-    <t>SHOTS ET DIGESTIFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,16 +726,167 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +899,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -763,31 +1096,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,64 +1114,365 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9"/>
+    <cellStyle name="Virgule" xfId="2" builtinId="3"/>
+    <cellStyle name="60 % - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
+    <cellStyle name="Titre" xfId="5" builtinId="15"/>
+    <cellStyle name="Monétaire [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Monétaire" xfId="7" builtinId="4"/>
+    <cellStyle name="Milliers [0]" xfId="8" builtinId="6"/>
+    <cellStyle name="Cellule liée" xfId="9" builtinId="24"/>
+    <cellStyle name="Pourcentage" xfId="10" builtinId="5"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
+    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
+    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
+    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
+    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
+    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
+    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
+    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
+    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
+    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
+    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
+    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,7 +1521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -937,7 +1556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1111,2572 +1730,2566 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="2" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="2" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="2" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="2" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="2" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="2" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="2" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="2" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="2" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="2" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="2" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="2" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="2" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="2" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="2" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="2" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="2" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="2" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="2" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="2" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="2" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="2" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="2" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="2" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="2" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="2" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="2" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="2" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="2" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="2" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="2" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="2" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="2" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="2" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="2" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" s="2" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="2" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="2" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="2" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="2" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="2" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B148" s="2" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" s="2" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="2" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B151" s="2" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="2" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" s="2" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B154" s="2" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="2" t="s">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B156" s="2" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="2" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" s="2" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B161" s="2" t="s">
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" s="2" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B163" s="2" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164" s="2" t="s">
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B165" s="2" t="s">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="2" t="s">
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B167" s="2" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B168" s="2" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B169" s="2" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="2" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B171" s="2" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" s="2" t="s">
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B173" s="2" t="s">
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B174" s="2" t="s">
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B175" s="2" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" s="2" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B177" s="2" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" s="2" t="s">
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" s="2" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="2" t="s">
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="2" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182" s="2" t="s">
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B183" s="2" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="2" t="s">
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="2" t="s">
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="2" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="2" t="s">
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="2" t="s">
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="2" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B190" s="2" t="s">
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" s="2" t="s">
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192" s="2" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B193" s="2" t="s">
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B194" s="2" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B195" s="2" t="s">
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="2" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="2" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="2" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="2" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="2" t="s">
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B201" s="2" t="s">
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202" s="2" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B203" s="2" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" s="2" t="s">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" s="2" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="7" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B207" s="5" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="4" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="4" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="4" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B211" s="5" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B212" s="5" t="s">
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B213" s="5" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214" s="5" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B215" s="5" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216" s="5" t="s">
+    <row r="216" spans="1:3">
+      <c r="A216" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B217" s="5" t="s">
+    <row r="217" spans="1:3">
+      <c r="A217" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C218" s="5" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C219" s="5" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="5" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C227" s="5" t="s">
+      <c r="C231" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +4300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +4311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -3709,7 +4322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -3720,7 +4333,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -3731,7 +4344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3742,7 +4355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +4366,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +4377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -3775,7 +4388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +4399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -3797,7 +4410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -3808,7 +4421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +4432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -3830,40 +4443,40 @@
         <v>215</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C246" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" t="s">
-        <v>227</v>
-      </c>
       <c r="C247" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C248" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +4487,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -3882,10 +4495,10 @@
         <v>129</v>
       </c>
       <c r="C250" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -3893,10 +4506,10 @@
         <v>149</v>
       </c>
       <c r="C251" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -3904,10 +4517,10 @@
         <v>158</v>
       </c>
       <c r="C252" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -3915,10 +4528,10 @@
         <v>164</v>
       </c>
       <c r="C253" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -3926,10 +4539,10 @@
         <v>164</v>
       </c>
       <c r="C254" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -3937,10 +4550,10 @@
         <v>168</v>
       </c>
       <c r="C255" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -3948,10 +4561,10 @@
         <v>168</v>
       </c>
       <c r="C256" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -3959,18 +4572,15 @@
         <v>168</v>
       </c>
       <c r="C257" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C257">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Eat"/>
-      </filters>
-    </filterColumn>
+    <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="14400" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="287">
   <si>
     <t>Catégorie</t>
   </si>
@@ -701,19 +701,316 @@
   </si>
   <si>
     <t>JACK DANIELS HONEY BTL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>BURGERS AND SANDWICHES</t>
+    </r>
+  </si>
+  <si>
+    <t>CHEESE BURGER</t>
+  </si>
+  <si>
+    <t>CHILI STEAK PLAT</t>
+  </si>
+  <si>
+    <t>CHILLI STEAK</t>
+  </si>
+  <si>
+    <t>CLASSICS BURGER</t>
+  </si>
+  <si>
+    <t>MOZZA BURGER</t>
+  </si>
+  <si>
+    <t>MOZZA BURGER PLAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>CHAMPAGNES</t>
+    </r>
+  </si>
+  <si>
+    <t>MOET CHANDON ICE</t>
+  </si>
+  <si>
+    <t>NICOLAS FEUILLATE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>COCKTAILS ALCOLISES</t>
+    </r>
+  </si>
+  <si>
+    <t>DIRTY SECRET</t>
+  </si>
+  <si>
+    <t>FORBIDEN MARTINI</t>
+  </si>
+  <si>
+    <t>JAGER  BOMB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>COCKTAILS NON ALCOLISES</t>
+    </r>
+  </si>
+  <si>
+    <t>BARBIE SOFT</t>
+  </si>
+  <si>
+    <t>EXOTIC SMOOTHIE</t>
+  </si>
+  <si>
+    <t>TABOO DETOX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>COGNAC</t>
+    </r>
+  </si>
+  <si>
+    <t>HENNESSY VSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENNESSY VSOP 1L </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>DESSERTS</t>
+    </r>
+  </si>
+  <si>
+    <t>BOTO CHOCO</t>
+  </si>
+  <si>
+    <t>TAGLIATELLE DE CREPE NUTELA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>GASTRONOMIE AFRICAINE</t>
+    </r>
+  </si>
+  <si>
+    <t>DJENKOUME</t>
+  </si>
+  <si>
+    <t>JOLLOF RICE</t>
+  </si>
+  <si>
+    <t>MAFE</t>
+  </si>
+  <si>
+    <t>TIEB BOU DIEN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>PASTAS</t>
+    </r>
+  </si>
+  <si>
+    <t>CHINESE WOK</t>
+  </si>
+  <si>
+    <t>SOKA PASTA</t>
+  </si>
+  <si>
+    <t>ESCALOPE MILANESE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>PLATS</t>
+    </r>
+  </si>
+  <si>
+    <t>STROGONOFF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>SALADES</t>
+    </r>
+  </si>
+  <si>
+    <t>228 WANGASH</t>
+  </si>
+  <si>
+    <t>SALADE EXOTIQUE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>SHOTS ET DIGESTIFS</t>
+    </r>
+  </si>
+  <si>
+    <t>MALIBU</t>
+  </si>
+  <si>
+    <t>MALIBU BTL</t>
+  </si>
+  <si>
+    <t>MARTINI BLANC</t>
+  </si>
+  <si>
+    <t>MARTINI BLANC BTL</t>
+  </si>
+  <si>
+    <t>MARTINI ROUGE</t>
+  </si>
+  <si>
+    <t>MARTINI ROUGE BTL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>TAPAS</t>
+    </r>
+  </si>
+  <si>
+    <t>BRUSCHETTA</t>
+  </si>
+  <si>
+    <t>CHEESY FRIES</t>
+  </si>
+  <si>
+    <t>MOZZA STICKS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>VIN ROUGE</t>
+    </r>
+  </si>
+  <si>
+    <t>BARON MAXIME ROUGE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>VODKA</t>
+    </r>
+  </si>
+  <si>
+    <t>BELVEDERE BTL</t>
+  </si>
+  <si>
+    <t>CIROC BTL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>WHISKY</t>
+    </r>
+  </si>
+  <si>
+    <t>DOUBLE BLACK</t>
+  </si>
+  <si>
+    <t>MONKEY SHOULDER</t>
+  </si>
+  <si>
+    <t>MONKEY SHOULDER 1L BTL</t>
+  </si>
+  <si>
+    <t>MONKEY SHOULDER BTL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,22 +1032,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -759,43 +1040,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,9 +1062,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,28 +1074,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,8 +1101,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,6 +1153,47 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -901,7 +1211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +1253,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,163 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,69 +1461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1240,6 +1487,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1251,152 +1561,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1417,57 +1727,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9"/>
-    <cellStyle name="Virgule" xfId="2" builtinId="3"/>
-    <cellStyle name="60 % - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
-    <cellStyle name="Titre" xfId="5" builtinId="15"/>
-    <cellStyle name="Monétaire [0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Monétaire" xfId="7" builtinId="4"/>
-    <cellStyle name="Milliers [0]" xfId="8" builtinId="6"/>
-    <cellStyle name="Cellule liée" xfId="9" builtinId="24"/>
-    <cellStyle name="Pourcentage" xfId="10" builtinId="5"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
-    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
-    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
-    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
-    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
-    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
-    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
-    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
-    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
-    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
-    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1736,10 +2048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -4575,6 +4887,490 @@
         <v>227</v>
       </c>
     </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C257">
     <extLst/>

--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768874-6A93-44FF-8584-69DAD2FD84FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$301</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="284">
   <si>
     <t>Catégorie</t>
   </si>
@@ -112,12 +118,6 @@
     <t>LAURENT-PERRIER</t>
   </si>
   <si>
-    <t>MOET CHANDOM</t>
-  </si>
-  <si>
-    <t>MOET CHANDOM NECTAR</t>
-  </si>
-  <si>
     <t>RUINART BLANC DE BLANCS</t>
   </si>
   <si>
@@ -589,9 +589,6 @@
     <t>GOLD LABEL BOTTLE</t>
   </si>
   <si>
-    <t>MOET CHANDOM NECTAR ROSEE</t>
-  </si>
-  <si>
     <t>COCKTAIL MAISON</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
     <t>JACK DANIEL BTL</t>
   </si>
   <si>
-    <t>MOET CHANDOM ICE</t>
-  </si>
-  <si>
     <t>FREIXENET</t>
   </si>
   <si>
@@ -644,9 +638,6 @@
   </si>
   <si>
     <t>DOM CAUDRON BRUT</t>
-  </si>
-  <si>
-    <t>MOET CHANDOM ROSE</t>
   </si>
   <si>
     <t>MOET CHANDON</t>
@@ -708,7 +699,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>BURGERS AND SANDWICHES</t>
     </r>
@@ -737,7 +727,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>CHAMPAGNES</t>
     </r>
@@ -754,7 +743,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>COCKTAILS ALCOLISES</t>
     </r>
@@ -774,7 +762,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>COCKTAILS NON ALCOLISES</t>
     </r>
@@ -794,7 +781,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>COGNAC</t>
     </r>
@@ -811,7 +797,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>DESSERTS</t>
     </r>
@@ -828,7 +813,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>GASTRONOMIE AFRICAINE</t>
     </r>
@@ -851,7 +835,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>PASTAS</t>
     </r>
@@ -871,7 +854,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>PLATS</t>
     </r>
@@ -885,7 +867,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>SALADES</t>
     </r>
@@ -902,7 +883,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>SHOTS ET DIGESTIFS</t>
     </r>
@@ -931,7 +911,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>TAPAS</t>
     </r>
@@ -951,7 +930,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>VIN ROUGE</t>
     </r>
@@ -965,7 +943,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>VODKA</t>
     </r>
@@ -982,7 +959,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>WHISKY</t>
     </r>
@@ -998,19 +974,19 @@
   </si>
   <si>
     <t>MONKEY SHOULDER BTL</t>
+  </si>
+  <si>
+    <t>MOET CHANDON NECTAR ROSEE</t>
+  </si>
+  <si>
+    <t>MOET CHANDON ROSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,170 +1009,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,194 +1032,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1460,251 +1097,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1727,64 +1122,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2042,22 +1393,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="28.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2332,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2343,7 +1694,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2354,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2365,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2376,29 +1727,29 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2406,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2417,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2428,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2439,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2450,10 +1801,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2461,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2472,10 +1823,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2483,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2494,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2505,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2516,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2527,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2538,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2549,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2560,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2571,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2582,10 +1933,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2593,10 +1944,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2604,10 +1955,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2615,10 +1966,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2626,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2637,10 +1988,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2648,10 +1999,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2659,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2670,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2681,10 +2032,10 @@
         <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2692,10 +2043,10 @@
         <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2703,10 +2054,10 @@
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2714,10 +2065,10 @@
         <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2725,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2736,10 +2087,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2747,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2758,10 +2109,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2769,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2780,10 +2131,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2791,10 +2142,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2802,10 +2153,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2813,10 +2164,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2824,10 +2175,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2835,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2846,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2857,10 +2208,10 @@
         <v>15</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2868,10 +2219,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2879,10 +2230,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2890,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2901,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2912,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2923,10 +2274,10 @@
         <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2934,10 +2285,10 @@
         <v>15</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2945,10 +2296,10 @@
         <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2956,10 +2307,10 @@
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2967,10 +2318,10 @@
         <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2978,10 +2329,10 @@
         <v>15</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2989,10 +2340,10 @@
         <v>15</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3000,10 +2351,10 @@
         <v>15</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3011,10 +2362,10 @@
         <v>15</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3022,10 +2373,10 @@
         <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3033,10 +2384,10 @@
         <v>15</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3044,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3055,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3066,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3077,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3088,10 +2439,10 @@
         <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3099,10 +2450,10 @@
         <v>15</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3110,10 +2461,10 @@
         <v>15</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3121,10 +2472,10 @@
         <v>15</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3132,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3143,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3154,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3165,10 +2516,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3176,10 +2527,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3187,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3198,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3209,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3220,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3231,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3242,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3253,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3264,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3275,10 +2626,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3286,10 +2637,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3297,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3308,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3319,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3330,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3341,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3352,10 +2703,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3363,10 +2714,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3374,10 +2725,10 @@
         <v>15</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3385,10 +2736,10 @@
         <v>15</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3396,10 +2747,10 @@
         <v>15</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3407,10 +2758,10 @@
         <v>15</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3418,10 +2769,10 @@
         <v>15</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3429,10 +2780,10 @@
         <v>15</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3440,10 +2791,10 @@
         <v>15</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3451,10 +2802,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3462,10 +2813,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3473,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3484,10 +2835,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3495,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3506,10 +2857,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3517,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3528,10 +2879,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3539,10 +2890,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3550,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3561,10 +2912,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3572,10 +2923,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3583,10 +2934,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3594,10 +2945,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3605,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3616,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3627,10 +2978,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3638,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3649,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3660,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3671,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3682,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3693,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3704,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3715,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3726,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3737,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3751,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3762,7 +3113,7 @@
         <v>29</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3773,29 +3124,29 @@
         <v>29</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3803,10 +3154,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3814,10 +3165,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3825,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3836,10 +3187,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3847,10 +3198,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3858,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3869,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3880,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3891,10 +3242,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3902,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3913,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3924,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3935,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3946,10 +3297,10 @@
         <v>3</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3957,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3968,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3979,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3990,10 +3341,10 @@
         <v>3</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4001,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4012,10 +3363,10 @@
         <v>3</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4023,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4034,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4045,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4056,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4067,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4078,10 +3429,10 @@
         <v>15</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4089,10 +3440,10 @@
         <v>15</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4100,10 +3451,10 @@
         <v>15</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4111,10 +3462,10 @@
         <v>15</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4122,10 +3473,10 @@
         <v>15</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4133,10 +3484,10 @@
         <v>15</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4144,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4155,10 +3506,10 @@
         <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4166,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4177,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4188,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4199,10 +3550,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4210,10 +3561,10 @@
         <v>15</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4221,10 +3572,10 @@
         <v>15</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4232,10 +3583,10 @@
         <v>15</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4243,10 +3594,10 @@
         <v>15</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4254,10 +3605,10 @@
         <v>15</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4265,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4276,10 +3627,10 @@
         <v>3</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4287,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4298,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4309,10 +3660,10 @@
         <v>3</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4320,10 +3671,10 @@
         <v>15</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4331,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4342,10 +3693,10 @@
         <v>15</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4353,10 +3704,10 @@
         <v>15</v>
       </c>
       <c r="B209" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C209" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4364,10 +3715,10 @@
         <v>15</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4375,10 +3726,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4386,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4397,10 +3748,10 @@
         <v>3</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4408,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4419,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4430,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4444,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4452,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4463,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4474,10 +3825,10 @@
         <v>15</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4485,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4496,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4507,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4518,10 +3869,10 @@
         <v>3</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4529,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4540,10 +3891,10 @@
         <v>3</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4551,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4562,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4573,10 +3924,10 @@
         <v>3</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4584,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4595,10 +3946,10 @@
         <v>15</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4609,7 +3960,7 @@
         <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4617,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C233" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4628,10 +3979,10 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C234" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4639,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C235" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4650,10 +4001,10 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C236" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4661,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C237" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4675,7 +4026,7 @@
         <v>29</v>
       </c>
       <c r="C238" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4686,7 +4037,7 @@
         <v>29</v>
       </c>
       <c r="C239" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4697,7 +4048,7 @@
         <v>29</v>
       </c>
       <c r="C240" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4708,7 +4059,7 @@
         <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4716,10 +4067,10 @@
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C242" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4727,10 +4078,10 @@
         <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C243" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4738,10 +4089,10 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4749,10 +4100,10 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C245" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4760,10 +4111,10 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C246" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4771,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C247" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4782,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C248" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4793,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C249" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4804,10 +4155,10 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C250" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4815,10 +4166,10 @@
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C251" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4826,10 +4177,10 @@
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C252" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4837,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C253" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4848,10 +4199,10 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C254" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4859,10 +4210,10 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C255" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4870,10 +4221,10 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C256" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4881,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C257" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4892,10 +4243,10 @@
         <v>15</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4903,10 +4254,10 @@
         <v>15</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4914,10 +4265,10 @@
         <v>15</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4925,10 +4276,10 @@
         <v>15</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4936,10 +4287,10 @@
         <v>15</v>
       </c>
       <c r="B262" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C262" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4947,10 +4298,10 @@
         <v>15</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4958,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4969,10 +4320,10 @@
         <v>3</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4980,10 +4331,10 @@
         <v>3</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4991,10 +4342,10 @@
         <v>3</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5002,10 +4353,10 @@
         <v>3</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5013,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5024,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5035,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5046,10 +4397,10 @@
         <v>3</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5057,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5068,10 +4419,10 @@
         <v>15</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5079,10 +4430,10 @@
         <v>15</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5090,10 +4441,10 @@
         <v>15</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5101,10 +4452,10 @@
         <v>15</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5112,10 +4463,10 @@
         <v>15</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5123,10 +4474,10 @@
         <v>15</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5134,10 +4485,10 @@
         <v>15</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5145,10 +4496,10 @@
         <v>15</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5156,10 +4507,10 @@
         <v>15</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5167,10 +4518,10 @@
         <v>15</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5178,10 +4529,10 @@
         <v>15</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5189,76 +4540,76 @@
         <v>15</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B290" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C290" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5266,10 +4617,10 @@
         <v>15</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5277,10 +4628,10 @@
         <v>15</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5288,10 +4639,10 @@
         <v>15</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5299,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5310,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5321,10 +4672,10 @@
         <v>3</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5332,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5343,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5354,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5365,18 +4716,15 @@
         <v>3</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C257">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768874-6A93-44FF-8584-69DAD2FD84FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56DD7C-0206-4D14-95B0-B6632CB1B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="290">
   <si>
     <t>Catégorie</t>
   </si>
@@ -980,6 +980,24 @@
   </si>
   <si>
     <t>MOET CHANDON ROSE</t>
+  </si>
+  <si>
+    <t>DOM PERIGNON</t>
+  </si>
+  <si>
+    <t>HENNESSY 35CL</t>
+  </si>
+  <si>
+    <t>REMY MARTIN VSOP BTL</t>
+  </si>
+  <si>
+    <t>JET 27</t>
+  </si>
+  <si>
+    <t>JET 27 BTL</t>
+  </si>
+  <si>
+    <t>THE</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -4722,6 +4743,72 @@
         <v>281</v>
       </c>
     </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C303" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C304" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C305" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C306" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" t="s">
+        <v>127</v>
+      </c>
+      <c r="C307" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/correspondances.xlsx
+++ b/correspondances.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56DD7C-0206-4D14-95B0-B6632CB1B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$C$308</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="292">
   <si>
     <t>Catégorie</t>
   </si>
@@ -118,6 +112,12 @@
     <t>LAURENT-PERRIER</t>
   </si>
   <si>
+    <t>MOET CHANDON</t>
+  </si>
+  <si>
+    <t>MOET CHANDON NECTAR</t>
+  </si>
+  <si>
     <t>RUINART BLANC DE BLANCS</t>
   </si>
   <si>
@@ -130,15 +130,12 @@
     <t>SMOKE</t>
   </si>
   <si>
-    <t>CHICHA</t>
+    <t>SHISHA</t>
   </si>
   <si>
     <t>CHANGEMENT DE TETE</t>
   </si>
   <si>
-    <t>SHISHA</t>
-  </si>
-  <si>
     <t>COCKTAILS ALCOLISES</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
     <t>GOLD LABEL BOTTLE</t>
   </si>
   <si>
+    <t>MOET CHANDON NECTAR ROSEE</t>
+  </si>
+  <si>
     <t>COCKTAIL MAISON</t>
   </si>
   <si>
@@ -622,6 +622,9 @@
     <t>JACK DANIEL BTL</t>
   </si>
   <si>
+    <t>MOET CHANDON ICE</t>
+  </si>
+  <si>
     <t>FREIXENET</t>
   </si>
   <si>
@@ -640,10 +643,7 @@
     <t>DOM CAUDRON BRUT</t>
   </si>
   <si>
-    <t>MOET CHANDON</t>
-  </si>
-  <si>
-    <t>MOET CHANDON NECTAR</t>
+    <t>MOET CHANDON ROSE</t>
   </si>
   <si>
     <t>VIRGIN MOJITO</t>
@@ -699,6 +699,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>BURGERS AND SANDWICHES</t>
     </r>
@@ -727,12 +728,10 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>CHAMPAGNES</t>
     </r>
-  </si>
-  <si>
-    <t>MOET CHANDON ICE</t>
   </si>
   <si>
     <t>NICOLAS FEUILLATE</t>
@@ -743,6 +742,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>COCKTAILS ALCOLISES</t>
     </r>
@@ -762,6 +762,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>COCKTAILS NON ALCOLISES</t>
     </r>
@@ -781,6 +782,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>COGNAC</t>
     </r>
@@ -797,6 +799,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>DESSERTS</t>
     </r>
@@ -813,6 +816,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>GASTRONOMIE AFRICAINE</t>
     </r>
@@ -835,6 +839,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>PASTAS</t>
     </r>
@@ -854,6 +859,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>PLATS</t>
     </r>
@@ -867,6 +873,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>SALADES</t>
     </r>
@@ -883,6 +890,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>SHOTS ET DIGESTIFS</t>
     </r>
@@ -911,6 +919,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>TAPAS</t>
     </r>
@@ -930,6 +939,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>VIN ROUGE</t>
     </r>
@@ -943,6 +953,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>VODKA</t>
     </r>
@@ -959,6 +970,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>WHISKY</t>
     </r>
@@ -976,12 +988,6 @@
     <t>MONKEY SHOULDER BTL</t>
   </si>
   <si>
-    <t>MOET CHANDON NECTAR ROSEE</t>
-  </si>
-  <si>
-    <t>MOET CHANDON ROSE</t>
-  </si>
-  <si>
     <t>DOM PERIGNON</t>
   </si>
   <si>
@@ -998,13 +1004,52 @@
   </si>
   <si>
     <t>THE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>DRINK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>WHISKY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RED LABEL BTL 1L</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,15 +1074,167 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,8 +1247,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1115,11 +1498,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1145,18 +1770,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgule" xfId="1" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
+    <cellStyle name="Milliers [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Monétaire [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Avertissement" xfId="9" builtinId="11"/>
+    <cellStyle name="Titre" xfId="10" builtinId="15"/>
+    <cellStyle name="CTexte explicatif" xfId="11" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Titre 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Titre 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrée" xfId="16" builtinId="20"/>
+    <cellStyle name="Sortie" xfId="17" builtinId="21"/>
+    <cellStyle name="Calcul" xfId="18" builtinId="22"/>
+    <cellStyle name="Vérification de cellule" xfId="19" builtinId="23"/>
+    <cellStyle name="Cellule liée" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Satisfaisant" xfId="22" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20 % - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20 % - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40 % - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60 % - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20 % - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20 % - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60 % - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1414,22 +2084,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C307"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1443,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +2168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +2190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1542,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1553,7 +2223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +2234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +2256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1597,7 +2267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +2278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1619,7 +2289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +2322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +2333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +2344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +2355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" hidden="1" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +2366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1704,10 +2374,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1715,10 +2385,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1726,10 +2396,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1737,10 +2407,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1748,1374 +2418,1374 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C75" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" hidden="1" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:3">
       <c r="A120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C121" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:3">
       <c r="A122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" spans="1:3">
       <c r="A123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" hidden="1" spans="1:3">
       <c r="A124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:3">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" hidden="1" spans="1:3">
       <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:3">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" hidden="1" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C132" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C140" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" hidden="1" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="C143" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" spans="1:3">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" hidden="1" spans="1:3">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" hidden="1" spans="1:3">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:3">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:3">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:3">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:3">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
@@ -3123,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:3">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
@@ -3134,10 +3804,10 @@
         <v>29</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" hidden="1" spans="1:3">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -3145,670 +3815,670 @@
         <v>29</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" hidden="1" spans="1:3">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" hidden="1" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C160" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" hidden="1" spans="1:3">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" hidden="1" spans="1:3">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" hidden="1" spans="1:3">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" hidden="1" spans="1:3">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" hidden="1" spans="1:3">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" hidden="1" spans="1:3">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" hidden="1" spans="1:3">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" hidden="1" spans="1:3">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" hidden="1" spans="1:3">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" hidden="1" spans="1:3">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" hidden="1" spans="1:3">
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" hidden="1" spans="1:3">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" hidden="1" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C173" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" hidden="1" spans="1:3">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" hidden="1" spans="1:3">
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" hidden="1" spans="1:3">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" hidden="1" spans="1:3">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" spans="1:3">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" hidden="1" spans="1:3">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" hidden="1" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C180" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" hidden="1" spans="1:3">
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" hidden="1" spans="1:3">
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:3">
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" hidden="1" spans="1:3">
       <c r="A184" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" hidden="1" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C185" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" hidden="1" spans="1:3">
       <c r="A186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" hidden="1" spans="1:3">
       <c r="A187" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" hidden="1" spans="1:3">
       <c r="A188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" hidden="1" spans="1:3">
       <c r="A189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" hidden="1" spans="1:3">
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" hidden="1" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C191" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" hidden="1" spans="1:3">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" hidden="1" spans="1:3">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" hidden="1" spans="1:3">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" hidden="1" spans="1:3">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" hidden="1" spans="1:3">
       <c r="A196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" hidden="1" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C197" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" hidden="1" spans="1:3">
       <c r="A198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" hidden="1" spans="1:3">
       <c r="A199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" hidden="1" spans="1:3">
       <c r="A200" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" hidden="1" spans="1:3">
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" hidden="1" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C202" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" hidden="1" spans="1:3">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" hidden="1" spans="1:3">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205" hidden="1" spans="1:3">
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="206" hidden="1" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" hidden="1" spans="1:3">
       <c r="A207" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="208" hidden="1" spans="1:3">
       <c r="A208" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C208" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="209" hidden="1" spans="1:3">
+      <c r="A209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="C209" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="210" hidden="1" spans="1:3">
       <c r="A210" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="211" hidden="1" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" hidden="1" spans="1:3">
       <c r="A212" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" hidden="1" spans="1:3">
       <c r="A213" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" hidden="1" spans="1:3">
       <c r="A214" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="215" hidden="1" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="216" hidden="1" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="217" hidden="1" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>3</v>
       </c>
@@ -3816,164 +4486,164 @@
         <v>29</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" hidden="1" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C218" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" hidden="1" spans="1:3">
+      <c r="A219" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" hidden="1" spans="1:3">
+      <c r="A220" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="221" hidden="1" spans="1:3">
+      <c r="A221" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" hidden="1" spans="1:3">
+      <c r="A222" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" hidden="1" spans="1:3">
+      <c r="A223" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" hidden="1" spans="1:3">
+      <c r="A224" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" hidden="1" spans="1:3">
+      <c r="A225" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="226" hidden="1" spans="1:3">
+      <c r="A226" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="227" hidden="1" spans="1:3">
+      <c r="A227" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" hidden="1" spans="1:3">
+      <c r="A228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" hidden="1" spans="1:3">
+      <c r="A229" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C222" s="6" t="s">
+    <row r="230" hidden="1" spans="1:3">
+      <c r="A230" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="231" hidden="1" spans="1:3">
+      <c r="A231" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C231" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+    <row r="232" hidden="1" spans="1:3">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -3981,65 +4651,65 @@
         <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="233" hidden="1" spans="1:3">
       <c r="A233" t="s">
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C233" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="234" hidden="1" spans="1:3">
       <c r="A234" t="s">
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C234" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235" hidden="1" spans="1:3">
       <c r="A235" t="s">
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C235" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" hidden="1" spans="1:3">
       <c r="A236" t="s">
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C236" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="237" hidden="1" spans="1:3">
       <c r="A237" t="s">
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C237" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="238" hidden="1" spans="1:3">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -4047,10 +4717,10 @@
         <v>29</v>
       </c>
       <c r="C238" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="239" hidden="1" spans="1:3">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -4058,10 +4728,10 @@
         <v>29</v>
       </c>
       <c r="C239" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="240" hidden="1" spans="1:3">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -4069,10 +4739,10 @@
         <v>29</v>
       </c>
       <c r="C240" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" hidden="1" spans="1:3">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -4080,670 +4750,670 @@
         <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" hidden="1" spans="1:3">
       <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C242" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="243" hidden="1" spans="1:3">
       <c r="A243" t="s">
         <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C243" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="244" hidden="1" spans="1:3">
       <c r="A244" t="s">
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C244" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" hidden="1" spans="1:3">
       <c r="A245" t="s">
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C245" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="246" hidden="1" spans="1:3">
       <c r="A246" t="s">
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C246" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" hidden="1" spans="1:3">
       <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C247" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="248" hidden="1" spans="1:3">
+      <c r="A248" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>3</v>
-      </c>
-      <c r="B248" t="s">
-        <v>211</v>
-      </c>
       <c r="C248" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="249" hidden="1" spans="1:3">
       <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C249" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="250" hidden="1" spans="1:3">
       <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C250" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="251" hidden="1" spans="1:3">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C251" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="252" hidden="1" spans="1:3">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C252" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="253" hidden="1" spans="1:3">
       <c r="A253" t="s">
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C253" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="254" hidden="1" spans="1:3">
       <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="255" hidden="1" spans="1:3">
       <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C255" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="256" hidden="1" spans="1:3">
       <c r="A256" t="s">
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C256" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="257" hidden="1" spans="1:3">
       <c r="A257" t="s">
         <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C257" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="258" hidden="1" spans="1:3">
       <c r="A258" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="259" hidden="1" spans="1:3">
       <c r="A259" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C259" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="260" hidden="1" spans="1:3">
+      <c r="A260" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="C260" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="261" hidden="1" spans="1:3">
       <c r="A261" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262" hidden="1" spans="1:3">
       <c r="A262" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="263" hidden="1" spans="1:3">
       <c r="A263" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" hidden="1" spans="1:3">
       <c r="A264" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="265" hidden="1" spans="1:3">
       <c r="A265" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="266" hidden="1" spans="1:3">
       <c r="A266" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C266" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" hidden="1" spans="1:3">
+      <c r="A267" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="C267" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="268" hidden="1" spans="1:3">
       <c r="A268" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" hidden="1" spans="1:3">
       <c r="A269" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C269" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="270" hidden="1" spans="1:3">
+      <c r="A270" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="C270" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" hidden="1" spans="1:3">
       <c r="A271" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" hidden="1" spans="1:3">
       <c r="A272" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C272" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="273" hidden="1" spans="1:3">
+      <c r="A273" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="C273" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="274" hidden="1" spans="1:3">
       <c r="A274" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C274" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="275" hidden="1" spans="1:3">
+      <c r="A275" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="C275" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="276" hidden="1" spans="1:3">
       <c r="A276" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C276" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="277" hidden="1" spans="1:3">
+      <c r="A277" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="C277" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="278" hidden="1" spans="1:3">
       <c r="A278" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="279" hidden="1" spans="1:3">
       <c r="A279" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="280" hidden="1" spans="1:3">
       <c r="A280" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C280" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="281" hidden="1" spans="1:3">
+      <c r="A281" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>252</v>
-      </c>
       <c r="C281" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="282" hidden="1" spans="1:3">
       <c r="A282" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" hidden="1" spans="1:3">
       <c r="A283" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="284" hidden="1" spans="1:3">
       <c r="A284" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C284" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="285" hidden="1" spans="1:3">
+      <c r="A285" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="C285" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="286" hidden="1" spans="1:3">
       <c r="A286" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C286" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="287" hidden="1" spans="1:3">
+      <c r="A287" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" s="9" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="C287" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="288" hidden="1" spans="1:3">
       <c r="A288" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="289" hidden="1" spans="1:3">
       <c r="A289" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="290" hidden="1" spans="1:3">
       <c r="A290" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="291" hidden="1" spans="1:3">
       <c r="A291" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="292" hidden="1" spans="1:3">
       <c r="A292" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C292" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="293" hidden="1" spans="1:3">
+      <c r="A293" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="C293" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294" hidden="1" spans="1:3">
       <c r="A294" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="295" hidden="1" spans="1:3">
       <c r="A295" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="296" hidden="1" spans="1:3">
       <c r="A296" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C296" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" hidden="1" spans="1:3">
+      <c r="A297" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>274</v>
-      </c>
       <c r="C297" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="298" hidden="1" spans="1:3">
       <c r="A298" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C298" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="299" hidden="1" spans="1:3">
+      <c r="A299" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" s="9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="C299" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" hidden="1" spans="1:3">
       <c r="A300" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="301" hidden="1" spans="1:3">
       <c r="A301" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="302" hidden="1" spans="1:3">
       <c r="A302" t="s">
         <v>3</v>
       </c>
@@ -4751,67 +5421,86 @@
         <v>29</v>
       </c>
       <c r="C302" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="303" hidden="1" spans="1:3">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C303" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
-        <v>3</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C303" t="s">
+    <row r="304" hidden="1" spans="1:3">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C304" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" t="s">
-        <v>3</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C304" t="s">
+    <row r="305" hidden="1" spans="1:3">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C305" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" t="s">
-        <v>3</v>
-      </c>
-      <c r="B305" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C305" t="s">
+    <row r="306" hidden="1" spans="1:3">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C306" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" t="s">
-        <v>3</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C306" t="s">
+    <row r="307" hidden="1" spans="1:3">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307" t="s">
+        <v>128</v>
+      </c>
+      <c r="C307" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" t="s">
-        <v>3</v>
-      </c>
-      <c r="B307" t="s">
-        <v>127</v>
-      </c>
-      <c r="C307" t="s">
+    <row r="308" hidden="1" spans="1:3">
+      <c r="A308" s="11" t="s">
         <v>289</v>
       </c>
+      <c r="B308" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C308">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SMOKE"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>